--- a/artfynd/A 55660-2023 artfynd.xlsx
+++ b/artfynd/A 55660-2023 artfynd.xlsx
@@ -1686,10 +1686,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131187614</v>
+        <v>131187626</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1697,23 +1697,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1721,10 +1717,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>441097</v>
+        <v>441180</v>
       </c>
       <c r="R10" t="n">
-        <v>7057228</v>
+        <v>7057056</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1757,11 +1753,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1788,7 +1779,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131187619</v>
+        <v>131187615</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1823,10 +1814,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>441118</v>
+        <v>441121</v>
       </c>
       <c r="R11" t="n">
-        <v>7056975</v>
+        <v>7057222</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1890,7 +1881,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131187615</v>
+        <v>131187619</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1925,10 +1916,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>441121</v>
+        <v>441118</v>
       </c>
       <c r="R12" t="n">
-        <v>7057222</v>
+        <v>7056975</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1992,10 +1983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131187626</v>
+        <v>131187614</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2003,19 +1994,23 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2023,10 +2018,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>441180</v>
+        <v>441097</v>
       </c>
       <c r="R13" t="n">
-        <v>7057056</v>
+        <v>7057228</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,6 +2054,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2289,10 +2289,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131187616</v>
+        <v>131187625</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2300,23 +2300,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2324,10 +2320,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>441123</v>
+        <v>441119</v>
       </c>
       <c r="R16" t="n">
-        <v>7057208</v>
+        <v>7057196</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2360,11 +2356,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2391,7 +2382,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131187611</v>
+        <v>131187616</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2426,10 +2417,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>440913</v>
+        <v>441123</v>
       </c>
       <c r="R17" t="n">
-        <v>7056941</v>
+        <v>7057208</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2466,7 +2457,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2493,10 +2484,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131187625</v>
+        <v>131187611</v>
       </c>
       <c r="B18" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2504,19 +2495,23 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2524,10 +2519,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>441119</v>
+        <v>440913</v>
       </c>
       <c r="R18" t="n">
-        <v>7057196</v>
+        <v>7056941</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2560,6 +2555,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 55660-2023 artfynd.xlsx
+++ b/artfynd/A 55660-2023 artfynd.xlsx
@@ -1223,7 +1223,7 @@
         <v>131154933</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>131154932</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>131187626</v>
       </c>
       <c r="B10" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>131187625</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>131187600</v>
       </c>
       <c r="B23" t="n">
-        <v>92530</v>
+        <v>92531</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
